--- a/mapping_credit.xlsx
+++ b/mapping_credit.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houke\Desktop\HY_index\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="13995" windowHeight="7380"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="14000" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Shhet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>AAA</t>
   </si>
@@ -84,10 +89,6 @@
   </si>
   <si>
     <t>Credit</t>
-    <phoneticPr fontId="63" type="noConversion"/>
-  </si>
-  <si>
-    <t>NR</t>
     <phoneticPr fontId="63" type="noConversion"/>
   </si>
 </sst>
@@ -11251,12 +11252,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11298,7 +11302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11333,7 +11337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11545,12 +11549,12 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11731,12 +11735,8 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="63" type="noConversion"/>
